--- a/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
+++ b/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\indst\ItICM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F255C6D6-07C6-4FE3-8AF1-8C8C9AC6DD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802AE02-3E6A-452C-8977-146D73DADD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1830" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Source:</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>ISIC 19: Coke and refined petroleum products</t>
-  </si>
-  <si>
-    <t>ISIC 20T21: Chemicals and pharmaceutical products</t>
   </si>
   <si>
     <t>ISIC 22: Rubber and plastic products</t>
@@ -278,6 +275,12 @@
   </si>
   <si>
     <t>have any perceptible effect on results.</t>
+  </si>
+  <si>
+    <t>ISIC 21: Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>ISIC 20: Chemicals</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,142 +687,142 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +836,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -845,10 +848,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="37" width="14.140625" customWidth="1"/>
+    <col min="2" max="38" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -880,88 +883,91 @@
         <v>20</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -998,12 +1004,12 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -1073,8 +1079,11 @@
       <c r="AK2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1186,8 +1195,11 @@
       <c r="AK3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1227,12 +1239,12 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -1299,8 +1311,11 @@
       <c r="AK4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1412,8 +1427,11 @@
       <c r="AK5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1525,8 +1543,11 @@
       <c r="AK6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1638,8 +1659,11 @@
       <c r="AK7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1751,8 +1775,11 @@
       <c r="AK8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1789,14 +1816,14 @@
       <c r="L9" s="7">
         <v>1</v>
       </c>
-      <c r="M9">
-        <v>0</v>
+      <c r="M9" s="7">
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>1</v>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="P9" s="7">
         <v>1</v>
@@ -1816,14 +1843,14 @@
       <c r="U9" s="7">
         <v>1</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
+      <c r="V9" s="7">
         <v>1</v>
       </c>
-      <c r="X9">
-        <v>0</v>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1862,6 +1889,9 @@
         <v>0</v>
       </c>
       <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
         <v>0</v>
       </c>
     </row>
